--- a/raw data used/local authorities.xlsx
+++ b/raw data used/local authorities.xlsx
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,11 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -462,7 +475,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -470,85 +483,222 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:19" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15">
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15">
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
+      <c r="C10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="Q11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="15">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="15">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
